--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3918850.581825376</v>
+        <v>3918334.95221102</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2104816.95612689</v>
+        <v>2104816.956126888</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197861</v>
+        <v>826053.9034197859</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>295.4451734587545</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>294.3100365337103</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>62.92865590320493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.9252517290187</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>21.96523571243694</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>368.2621032835044</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>95.35420068589659</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1065,16 +1065,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>96.04846680251121</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>41.82077068048905</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1198,10 +1198,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>101.4829686842634</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>36.34282518908269</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>248.734264059147</v>
       </c>
       <c r="F11" t="n">
-        <v>68.45626899976942</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1390,7 +1390,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1432,13 +1432,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1587,13 +1587,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1669,13 +1669,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>260.4827703989793</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>93.6746666483144</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1824,13 +1824,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1900,7 +1900,7 @@
         <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -2095,7 +2095,7 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
@@ -2137,7 +2137,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
         <v>208.3257718879324</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2335,10 +2335,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2386,7 +2386,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>72.00795464350752</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>164.5918143518074</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380453</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497582</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2769,16 +2769,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077823</v>
+        <v>19.53546610776509</v>
       </c>
       <c r="D29" t="n">
-        <v>103.7617112773119</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380453</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3006,16 +3006,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
         <v>268.1977203190365</v>
@@ -3046,10 +3046,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875645</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
@@ -3249,13 +3249,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3274,7 +3274,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3286,7 +3286,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875645</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3334,7 +3334,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3492,7 +3492,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3520,10 +3520,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3723,13 +3723,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.2802739911203</v>
+        <v>322.2802739911202</v>
       </c>
       <c r="C41" t="n">
         <v>315.0342222189361</v>
@@ -3748,16 +3748,16 @@
         <v>307.3771932323363</v>
       </c>
       <c r="E41" t="n">
-        <v>324.3481653714583</v>
+        <v>324.3481653714582</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>338.5159698221594</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>334.8216036937142</v>
       </c>
       <c r="H41" t="n">
-        <v>140.4578148708559</v>
+        <v>148.2771037001338</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.6388952451973</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530148</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065847</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>264.4762169403542</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182328</v>
+        <v>293.0795204182327</v>
       </c>
       <c r="X41" t="n">
         <v>311.3485547531111</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.3162777254423</v>
+        <v>318.3162777254422</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>109.1464142412256</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150803</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>36.43768064117111</v>
+        <v>79.86725770334775</v>
       </c>
       <c r="E43" t="n">
-        <v>79.79369975622687</v>
+        <v>79.79369975622686</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>81.54315117599413</v>
       </c>
       <c r="G43" t="n">
-        <v>92.36198909838627</v>
+        <v>92.36198909838626</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495832</v>
+        <v>79.7142412649583</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613025</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058617</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>126.5783987161135</v>
@@ -3954,10 +3954,10 @@
         <v>159.1523370502856</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3748795773554</v>
+        <v>94.59207842318827</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>189.1100274642214</v>
       </c>
       <c r="W43" t="n">
         <v>206.2875737849715</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911203</v>
+        <v>322.2802739911202</v>
       </c>
       <c r="C44" t="n">
         <v>315.0342222189361</v>
       </c>
       <c r="D44" t="n">
-        <v>109.3190382810328</v>
+        <v>307.3771932323363</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3481653714583</v>
+        <v>208.1490521312379</v>
       </c>
       <c r="F44" t="n">
         <v>338.5159698221594</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>334.8216036937142</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.6388952451973</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530148</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065847</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>264.4762169403542</v>
+        <v>264.4762169403541</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182328</v>
+        <v>293.0795204182327</v>
       </c>
       <c r="X44" t="n">
         <v>311.3485547531111</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.3162777254423</v>
+        <v>318.3162777254422</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>109.1464142412256</v>
       </c>
       <c r="C46" t="n">
-        <v>1.153098804089254</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>92.36198909838627</v>
+        <v>92.36198909838626</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.7142412649583</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.55395684613023</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058617</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.5783987161135</v>
+        <v>38.91575461970096</v>
       </c>
       <c r="T46" t="n">
         <v>159.1523370502856</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>935.7499273842031</v>
+        <v>1811.466307371623</v>
       </c>
       <c r="C2" t="n">
-        <v>935.7499273842031</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="D2" t="n">
-        <v>935.7499273842031</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E2" t="n">
-        <v>935.7499273842031</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F2" t="n">
-        <v>518.8554889141809</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
@@ -4333,19 +4333,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N2" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
-        <v>2054.485046394444</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4357,25 +4357,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.634347577648</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V2" t="n">
-        <v>1633.527538281166</v>
+        <v>1811.466307371623</v>
       </c>
       <c r="W2" t="n">
-        <v>1633.527538281166</v>
+        <v>1811.466307371623</v>
       </c>
       <c r="X2" t="n">
-        <v>1336.2446730956</v>
+        <v>1811.466307371623</v>
       </c>
       <c r="Y2" t="n">
-        <v>1336.2446730956</v>
+        <v>1811.466307371623</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.492043226187</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1229.492043226187</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O3" t="n">
-        <v>1746.012325817167</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2151.633694533565</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.8859465029718</v>
+        <v>541.4052550335941</v>
       </c>
       <c r="C4" t="n">
-        <v>335.8859465029718</v>
+        <v>371.2001370995833</v>
       </c>
       <c r="D4" t="n">
-        <v>335.8859465029718</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E4" t="n">
-        <v>335.8859465029718</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F4" t="n">
-        <v>335.8859465029718</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G4" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
         <v>47.31297010154361</v>
@@ -4515,25 +4515,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>885.1956937509699</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>885.1956937509699</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>885.1956937509699</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>619.2163485717941</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>335.8859465029718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>335.8859465029718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>335.8859465029718</v>
+        <v>726.6132737248954</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1593.171836857193</v>
+        <v>1323.390908932847</v>
       </c>
       <c r="C5" t="n">
-        <v>1199.996335360124</v>
+        <v>930.2154074357779</v>
       </c>
       <c r="D5" t="n">
-        <v>1199.996335360124</v>
+        <v>544.7742786524457</v>
       </c>
       <c r="E5" t="n">
-        <v>797.412810476668</v>
+        <v>544.7742786524457</v>
       </c>
       <c r="F5" t="n">
-        <v>380.5183720066457</v>
+        <v>531.9202442228275</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>952.2962261735861</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N5" t="n">
-        <v>1480.107509811048</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O5" t="n">
-        <v>1920.147110703377</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2268.334602834899</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
@@ -4594,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.66658256859</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.66658256859</v>
+        <v>1323.390908932847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834975</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.141762214911</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.9439088256454</v>
+        <v>852.4426182128975</v>
       </c>
       <c r="C7" t="n">
-        <v>745.9439088256454</v>
+        <v>682.2375002788867</v>
       </c>
       <c r="D7" t="n">
-        <v>590.3107957281602</v>
+        <v>526.6043871814015</v>
       </c>
       <c r="E7" t="n">
-        <v>434.7519835873627</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="F7" t="n">
-        <v>277.4260488003356</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G7" t="n">
-        <v>277.4260488003356</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H7" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.85393926</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="C8" t="n">
-        <v>1182.85393926</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D8" t="n">
-        <v>797.412810476668</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>797.412810476668</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4804,25 +4804,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4831,25 +4831,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2285.412388655137</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2285.412388655137</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2285.412388655137</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1943.305579358656</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.306544326943</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1182.85393926</v>
+        <v>866.2748107935504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1182.85393926</v>
+        <v>469.7841017141515</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>912.0500682096792</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>709.2339843922286</v>
+        <v>834.4501588705843</v>
       </c>
       <c r="T10" t="n">
-        <v>709.2339843922286</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U10" t="n">
-        <v>709.2339843922286</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V10" t="n">
-        <v>709.2339843922286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W10" t="n">
-        <v>425.9035823234063</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>425.9035823234063</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252417</v>
+        <v>1814.815762957327</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.171044252417</v>
+        <v>1516.580942747446</v>
       </c>
       <c r="D11" t="n">
-        <v>1029.670596756273</v>
+        <v>1226.080495251301</v>
       </c>
       <c r="E11" t="n">
-        <v>722.0277531600054</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
         <v>652.8800066955919</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2697.97820891827</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2421.919855173746</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468836</v>
+        <v>2421.919855173746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676625</v>
+        <v>2120.369827381535</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082782</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979813</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445333</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5211,13 +5211,13 @@
         <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5226,25 +5226,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1351.569058538253</v>
+        <v>1598.67307041405</v>
       </c>
       <c r="C14" t="n">
-        <v>1053.334238328372</v>
+        <v>1300.438250204169</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>1009.937802708025</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321048</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492709</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2816.584415774169</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2293.359934020351</v>
       </c>
       <c r="X14" t="n">
-        <v>1958.673150754672</v>
+        <v>1998.848010240597</v>
       </c>
       <c r="Y14" t="n">
-        <v>1657.123122962461</v>
+        <v>1904.227134838259</v>
       </c>
     </row>
     <row r="15">
@@ -5363,13 +5363,13 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>456.9185815712231</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M15" t="n">
-        <v>1084.690231197904</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
         <v>417.8199303082779</v>
@@ -5421,7 +5421,7 @@
         <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
         <v>234.1241141445331</v>
@@ -5439,22 +5439,22 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757668</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791398</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5469,19 +5469,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
@@ -5518,16 +5518,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5551,10 +5551,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5594,19 +5594,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5682,19 +5682,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5740,7 +5740,7 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803432</v>
@@ -5755,16 +5755,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5840,10 +5840,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1634.317313094942</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5910,28 +5910,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5980,10 +5980,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6016,7 +6016,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6071,16 +6071,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>658.8001958221562</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1286.571845448837</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229836</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446688</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1552.989800955909</v>
+        <v>1448.730965405812</v>
       </c>
       <c r="C26" t="n">
-        <v>1254.754980746028</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="D26" t="n">
-        <v>964.2545332498844</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>656.6116896536173</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F26" t="n">
-        <v>334.6579324707834</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G26" t="n">
         <v>334.6579324707834</v>
@@ -6256,22 +6256,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.011542002407</v>
+        <v>2873.571463155803</v>
       </c>
       <c r="V26" t="n">
-        <v>2497.845413993114</v>
+        <v>2626.40533514651</v>
       </c>
       <c r="W26" t="n">
-        <v>2221.78706024859</v>
+        <v>2350.346981401985</v>
       </c>
       <c r="X26" t="n">
-        <v>1927.275136468835</v>
+        <v>2055.835057622231</v>
       </c>
       <c r="Y26" t="n">
-        <v>1625.725108676624</v>
+        <v>1754.28502983002</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
         <v>2146.089571124861</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082774</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979805</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443713</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445326</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G28" t="n">
-        <v>160.8107415311664</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2728717798487</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
@@ -6387,31 +6387,31 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
         <v>1400.589220329742</v>
@@ -6423,13 +6423,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852098</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1320.171044252415</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C29" t="n">
-        <v>1021.936224042534</v>
+        <v>1300.438250204169</v>
       </c>
       <c r="D29" t="n">
-        <v>917.1264146715123</v>
+        <v>1009.937802708025</v>
       </c>
       <c r="E29" t="n">
-        <v>609.4835710752451</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F29" t="n">
-        <v>609.4835710752451</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G29" t="n">
-        <v>291.2614968504366</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
         <v>62.11912770411553</v>
@@ -6496,19 +6496,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U29" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V29" t="n">
-        <v>2497.845413993114</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W29" t="n">
         <v>2221.78706024859</v>
       </c>
       <c r="X29" t="n">
-        <v>1927.275136468835</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y29" t="n">
-        <v>1625.725108676624</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L30" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M30" t="n">
-        <v>689.8907773307967</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N30" t="n">
-        <v>1345.668748541356</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O30" t="n">
-        <v>1862.189031132337</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P30" t="n">
-        <v>2267.810399848734</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
         <v>160.810741531167</v>
@@ -6624,31 +6624,31 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K31" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R31" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T31" t="n">
         <v>1400.589220329742</v>
@@ -6660,13 +6660,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="32">
@@ -6685,16 +6685,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G32" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924244</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6739,7 +6739,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840156</v>
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>658.8001958221562</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M33" t="n">
-        <v>658.8001958221562</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N33" t="n">
-        <v>1314.578167032715</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1831.098449623696</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2236.719818340093</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
@@ -6873,13 +6873,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P34" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q34" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R34" t="n">
         <v>1098.20216247628</v>
@@ -6888,22 +6888,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6922,16 +6922,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924244</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -7016,19 +7016,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.690231197904</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229842</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222403</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960401</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7213,7 +7213,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M39" t="n">
-        <v>1415.392499856821</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>2071.17047106738</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2587.690753658361</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2993.312122374758</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918056</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666454</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251377</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792988</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.67017068837</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114126</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433612</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2075.452993041795</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2157.288034151737</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2321.415674025537</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2507.707252363801</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2690.89688639501</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2853.601653436718</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>2973.477819213297</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926949</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1160.318517293597</v>
+        <v>1848.355751985669</v>
       </c>
       <c r="C41" t="n">
-        <v>842.1021312138635</v>
+        <v>1530.139365905936</v>
       </c>
       <c r="D41" t="n">
-        <v>531.6201178478672</v>
+        <v>1219.657352539939</v>
       </c>
       <c r="E41" t="n">
-        <v>203.9957083817477</v>
+        <v>892.03294307382</v>
       </c>
       <c r="F41" t="n">
-        <v>203.9957083817477</v>
+        <v>550.0976200211337</v>
       </c>
       <c r="G41" t="n">
-        <v>203.9957083817477</v>
+        <v>211.8939799264729</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3014.401945564163</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2865.860458540916</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2685.06684439285</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2417.919150513705</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>2121.879230899328</v>
+        <v>2809.9164655914</v>
       </c>
       <c r="X41" t="n">
-        <v>1807.385741249721</v>
+        <v>2495.422975941793</v>
       </c>
       <c r="Y41" t="n">
-        <v>1485.854147587658</v>
+        <v>2173.89138227973</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>900.265113061158</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>900.265113061158</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>900.265113061158</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>1528.036762687839</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>2183.814733898398</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>2700.335016489379</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
-        <v>3105.956385205776</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2091.144794408909</v>
+        <v>479.5740155818057</v>
       </c>
       <c r="C43" t="n">
-        <v>1995.898791892234</v>
+        <v>479.5740155818057</v>
       </c>
       <c r="D43" t="n">
-        <v>1959.093053870849</v>
+        <v>398.9000179016565</v>
       </c>
       <c r="E43" t="n">
-        <v>1878.493357147388</v>
+        <v>318.300321178195</v>
       </c>
       <c r="F43" t="n">
-        <v>1878.493357147388</v>
+        <v>235.933501808504</v>
       </c>
       <c r="G43" t="n">
-        <v>1785.19841866417</v>
+        <v>142.6385633252855</v>
       </c>
       <c r="H43" t="n">
-        <v>1704.678983043</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>1646.543673097413</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>1690.237359520507</v>
+        <v>105.8128141272091</v>
       </c>
       <c r="K43" t="n">
-        <v>1845.53982965098</v>
+        <v>261.115284257682</v>
       </c>
       <c r="L43" t="n">
-        <v>2083.134898545311</v>
+        <v>498.7103531520128</v>
       </c>
       <c r="M43" t="n">
-        <v>2342.893905904105</v>
+        <v>758.4693605108077</v>
       </c>
       <c r="N43" t="n">
-        <v>2599.550968955846</v>
+        <v>1015.126423562548</v>
       </c>
       <c r="O43" t="n">
-        <v>2835.723165018085</v>
+        <v>1251.298619624787</v>
       </c>
       <c r="P43" t="n">
-        <v>3029.066759815194</v>
+        <v>1444.642214421897</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.531839812479</v>
       </c>
       <c r="R43" t="n">
-        <v>3057.014511255689</v>
+        <v>1521.531839812479</v>
       </c>
       <c r="S43" t="n">
-        <v>2929.157542855575</v>
+        <v>1393.674871412364</v>
       </c>
       <c r="T43" t="n">
-        <v>2768.397606441145</v>
+        <v>1232.914934997934</v>
       </c>
       <c r="U43" t="n">
-        <v>2557.917930100382</v>
+        <v>1137.367381035118</v>
       </c>
       <c r="V43" t="n">
-        <v>2557.917930100382</v>
+        <v>946.3471512732781</v>
       </c>
       <c r="W43" t="n">
-        <v>2349.546643448895</v>
+        <v>737.9758646217917</v>
       </c>
       <c r="X43" t="n">
-        <v>2349.546643448895</v>
+        <v>737.9758646217917</v>
       </c>
       <c r="Y43" t="n">
-        <v>2201.393697682875</v>
+        <v>589.822918855771</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1160.318517293597</v>
+        <v>1581.208058106523</v>
       </c>
       <c r="C44" t="n">
-        <v>842.1021312138635</v>
+        <v>1262.99167202679</v>
       </c>
       <c r="D44" t="n">
-        <v>731.6788602229212</v>
+        <v>952.5096586607938</v>
       </c>
       <c r="E44" t="n">
-        <v>404.0544507568018</v>
+        <v>742.2580908514626</v>
       </c>
       <c r="F44" t="n">
-        <v>62.11912770411553</v>
+        <v>400.3227677987763</v>
       </c>
       <c r="G44" t="n">
         <v>62.11912770411553</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3014.401945564163</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2865.860458540916</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2685.06684439285</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2417.919150513705</v>
+        <v>2838.808691326631</v>
       </c>
       <c r="W44" t="n">
-        <v>2121.879230899328</v>
+        <v>2542.768771712254</v>
       </c>
       <c r="X44" t="n">
-        <v>1807.385741249721</v>
+        <v>2228.275282062647</v>
       </c>
       <c r="Y44" t="n">
-        <v>1485.854147587658</v>
+        <v>1906.743688400584</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>900.7358324498676</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>900.7358324498676</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>900.7358324498676</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1528.036762687839</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>2183.814733898398</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>2700.335016489379</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.5788124540908</v>
+        <v>294.0688117540901</v>
       </c>
       <c r="C46" t="n">
-        <v>155.414066187334</v>
+        <v>294.0688117540901</v>
       </c>
       <c r="D46" t="n">
-        <v>155.414066187334</v>
+        <v>294.0688117540901</v>
       </c>
       <c r="E46" t="n">
-        <v>155.414066187334</v>
+        <v>294.0688117540901</v>
       </c>
       <c r="F46" t="n">
-        <v>155.414066187334</v>
+        <v>294.0688117540901</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>200.7738732708716</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>120.2544376497016</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7809,10 +7809,10 @@
         <v>105.8128141272091</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576819</v>
+        <v>261.115284257682</v>
       </c>
       <c r="L46" t="n">
-        <v>498.7103531520127</v>
+        <v>498.7103531520128</v>
       </c>
       <c r="M46" t="n">
         <v>758.4693605108077</v>
@@ -7824,34 +7824,34 @@
         <v>1251.298619624787</v>
       </c>
       <c r="P46" t="n">
-        <v>1444.642214421896</v>
+        <v>1444.642214421897</v>
       </c>
       <c r="Q46" t="n">
-        <v>1521.531839812478</v>
+        <v>1521.531839812479</v>
       </c>
       <c r="R46" t="n">
-        <v>1472.589965862391</v>
+        <v>1521.531839812479</v>
       </c>
       <c r="S46" t="n">
-        <v>1344.732997462277</v>
+        <v>1482.222996762276</v>
       </c>
       <c r="T46" t="n">
-        <v>1183.973061047847</v>
+        <v>1321.463060347846</v>
       </c>
       <c r="U46" t="n">
-        <v>973.4933847070838</v>
+        <v>1110.983384007083</v>
       </c>
       <c r="V46" t="n">
-        <v>782.473154945244</v>
+        <v>919.9631542452431</v>
       </c>
       <c r="W46" t="n">
-        <v>574.1018682937577</v>
+        <v>711.5918675937568</v>
       </c>
       <c r="X46" t="n">
-        <v>414.9806614940767</v>
+        <v>552.4706607940759</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.8277157280561</v>
+        <v>404.3177150280553</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7993,10 +7993,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>359.0336792490003</v>
       </c>
       <c r="P2" t="n">
-        <v>277.8952841518222</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8060,7 +8060,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8072,13 +8072,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>307.1647294625964</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8230,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>546.2342719955939</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>242.7955693701917</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8303,13 +8303,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>340.274574506989</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8461,19 +8461,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>301.2346582324079</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,25 +8531,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>349.2438226594827</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>151.5659933015353</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8774,7 +8774,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8786,7 +8786,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9011,16 +9011,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>165.8788395891213</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9254,10 +9254,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>522.8795138138872</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9488,13 +9488,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>199.9106794075977</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9719,19 +9719,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>543.8532815002535</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9956,22 +9956,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>412.7428484698906</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>204.7702368236083</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,16 +10427,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.1748646101141</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,22 +10664,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>522.5790769743099</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10910,7 +10910,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.7702368236088</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.226541001028</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,16 +11375,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.0244253199902</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11393,7 +11393,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>55.83215110115751</v>
       </c>
       <c r="F11" t="n">
-        <v>250.2779506112361</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>31.08403414297794</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>204.8598608659741</v>
       </c>
     </row>
     <row r="15">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>230.490569136459</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>130.6606576559748</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>275.7170059000171</v>
       </c>
       <c r="D29" t="n">
-        <v>183.8337317438707</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110056</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221594</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>334.8216036937142</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>106.1748807951558</v>
+        <v>98.35559196587784</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529718</v>
+        <v>62.74422147529717</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>90.63889524519729</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>147.0560721530148</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>178.9856780065847</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>264.4762169403541</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>94.29354249150802</v>
       </c>
       <c r="D43" t="n">
-        <v>43.42957706217665</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599414</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684613023</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>48.45245521058615</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>113.7828011541671</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642214</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>198.0581549513035</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>116.1991132402204</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>334.8216036937142</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>246.6326956660116</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529718</v>
+        <v>62.74422147529717</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>90.63889524519729</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.0560721530148</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>93.14044368741878</v>
+        <v>94.29354249150802</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334776</v>
+        <v>79.86725770334775</v>
       </c>
       <c r="E46" t="n">
-        <v>79.79369975622687</v>
+        <v>79.79369975622686</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599414</v>
+        <v>81.54315117599413</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495832</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613025</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>48.45245521058615</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>87.66264409641251</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>508428.3680497146</v>
+        <v>508428.3680497145</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>508428.3680497145</v>
+        <v>508428.3680497146</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>508428.3680497145</v>
+        <v>508428.3680497146</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482224.7812278129</v>
+        <v>482224.781227813</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.712373427</v>
+        <v>721328.7123734272</v>
       </c>
       <c r="C2" t="n">
-        <v>721328.712373427</v>
+        <v>721328.7123734272</v>
       </c>
       <c r="D2" t="n">
         <v>721328.7123734271</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.4907329541</v>
+        <v>677904.4907329535</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329543</v>
+        <v>677904.4907329542</v>
       </c>
       <c r="G2" t="n">
-        <v>721328.7123734266</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="H2" t="n">
-        <v>721328.7123734265</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="I2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="J2" t="n">
-        <v>677904.4907329525</v>
+        <v>677904.4907329524</v>
       </c>
       <c r="K2" t="n">
-        <v>677904.4907329539</v>
+        <v>677904.490732954</v>
       </c>
       <c r="L2" t="n">
-        <v>721328.7123734277</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="M2" t="n">
         <v>721328.7123734273</v>
       </c>
       <c r="N2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="O2" t="n">
         <v>642966.3749704174</v>
       </c>
       <c r="P2" t="n">
-        <v>642966.3749704177</v>
+        <v>642966.3749704176</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.95587301437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>200837.4980720422</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602872</v>
+        <v>58189.91174602874</v>
       </c>
       <c r="M3" t="n">
         <v>46121.92123989166</v>
@@ -26420,16 +26420,16 @@
         <v>154346.0890704043</v>
       </c>
       <c r="C4" t="n">
-        <v>154346.0890704043</v>
+        <v>154346.0890704044</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183765</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26441,25 +26441,25 @@
         <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="K4" t="n">
-        <v>97239.09137183765</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="L4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
         <v>77248.72828755315</v>
       </c>
       <c r="P4" t="n">
-        <v>77248.72828755315</v>
+        <v>77248.72828755317</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299201.3600341046</v>
+        <v>299201.3600341048</v>
       </c>
       <c r="C6" t="n">
-        <v>497397.1660258495</v>
+        <v>497397.1660258498</v>
       </c>
       <c r="D6" t="n">
         <v>497397.1660258496</v>
       </c>
       <c r="E6" t="n">
-        <v>395100.1787144952</v>
+        <v>394991.6181603935</v>
       </c>
       <c r="F6" t="n">
-        <v>525553.1098522076</v>
+        <v>525444.5492981063</v>
       </c>
       <c r="G6" t="n">
-        <v>512220.575169573</v>
+        <v>512220.5751695736</v>
       </c>
       <c r="H6" t="n">
-        <v>541315.5310425872</v>
+        <v>541315.5310425879</v>
       </c>
       <c r="I6" t="n">
-        <v>541315.5310425883</v>
+        <v>541315.5310425879</v>
       </c>
       <c r="J6" t="n">
-        <v>324715.6117801635</v>
+        <v>324607.0512260622</v>
       </c>
       <c r="K6" t="n">
-        <v>525553.1098522071</v>
+        <v>525444.5492981061</v>
       </c>
       <c r="L6" t="n">
-        <v>483125.6192965597</v>
+        <v>483125.6192965593</v>
       </c>
       <c r="M6" t="n">
-        <v>495193.6098026964</v>
+        <v>495193.6098026963</v>
       </c>
       <c r="N6" t="n">
-        <v>541315.5310425879</v>
+        <v>541315.5310425882</v>
       </c>
       <c r="O6" t="n">
-        <v>511090.6814679552</v>
+        <v>510894.7756244477</v>
       </c>
       <c r="P6" t="n">
-        <v>512268.389132457</v>
+        <v>512072.4832889493</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26709,10 +26709,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
     <row r="3">
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304846</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253591</v>
+        <v>72.73738968253592</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304846</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>43.24056774476225</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>91.24804248256345</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27551,13 +27551,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27587,7 +27587,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>137.8592670760712</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27596,16 +27596,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0.9556888425044008</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>387.0658922444399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27681,10 +27681,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>17.29597573276936</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>88.00173781849168</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>57.87529872560974</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27824,7 +27824,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.0276488278709</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>284.0751103320104</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>86.31915428466611</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>87.62118754448949</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431673</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28754,13 +28754,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634528552</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28982,13 +28982,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29219,11 +29219,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668719</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35.71049010668813</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29945,16 +29945,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P34" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30167,16 +30167,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>35.71049010668725</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>35.7104901066877</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
         <v>130.3599693155844</v>
@@ -30404,7 +30404,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668725</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30419,16 +30419,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316263</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34713,10 +34713,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>209.4698418249039</v>
       </c>
       <c r="P2" t="n">
-        <v>127.593836910897</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34780,7 +34780,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.1765763066824</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34950,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.6704345714974</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.29687095179952</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>247.8874524576771</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35181,19 +35181,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>151.5096066346806</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>259.1834758025645</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>66.19388044736863</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35506,7 +35506,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>75.8184927322031</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611267</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>430.1919549249983</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36050,13 +36050,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873205</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
-        <v>292.6462316453562</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36065,7 +36065,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>107.2231205187088</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36293,7 +36293,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36302,7 +36302,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>458.4811686460869</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528118</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36527,7 +36527,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>220.7505244816469</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>320.0552895810017</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7820836676943</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>145.1867114542002</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37241,16 +37241,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P34" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>430.1919549249981</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37472,7 +37472,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>223.8838015594797</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37557,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7820836676948</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37715,16 +37715,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>113.7820836676947</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100356</v>
+        <v>44.13503679100358</v>
       </c>
       <c r="K43" t="n">
         <v>156.8711819499726</v>
@@ -37949,7 +37949,7 @@
         <v>262.3828357159546</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381214</v>
+        <v>259.2495586381215</v>
       </c>
       <c r="O43" t="n">
         <v>238.5577738002415</v>
@@ -37958,7 +37958,7 @@
         <v>195.2965604011208</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331512</v>
+        <v>77.66628827331513</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>633.6373032706783</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38113,7 +38113,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100356</v>
+        <v>44.13503679100358</v>
       </c>
       <c r="K46" t="n">
         <v>156.8711819499726</v>
@@ -38186,7 +38186,7 @@
         <v>262.3828357159546</v>
       </c>
       <c r="N46" t="n">
-        <v>259.2495586381214</v>
+        <v>259.2495586381215</v>
       </c>
       <c r="O46" t="n">
         <v>238.5577738002415</v>
@@ -38195,7 +38195,7 @@
         <v>195.2965604011208</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331512</v>
+        <v>77.66628827331513</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
